--- a/config_7.20/act_060_yxcard_config.xlsx
+++ b/config_7.20/act_060_yxcard_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>index|索引</t>
   </si>
@@ -55,7 +55,7 @@
     <t>yxk_btn_djyxk</t>
   </si>
   <si>
-    <t>"prop_xxl_shuiguo_card_1","prop_xxl_shuihu_card_1","prop_xxl_caishen_card_1","prop_xxl_xiyou_card_1","prop_xxl_chaoji_card_1","prop_xxl_sanguo_card_1"</t>
+    <t>"prop_xxl_shuiguo_card_1","prop_xxl_shuihu_card_1","prop_xxl_caishen_card_1","prop_xxl_xiyou_card_1"</t>
   </si>
   <si>
     <t>中级</t>
@@ -67,7 +67,7 @@
     <t>yxk_btn_zjyxk</t>
   </si>
   <si>
-    <t>"prop_xxl_shuiguo_card_2","prop_xxl_shuihu_card_2","prop_xxl_caishen_card_2","prop_xxl_xiyou_card_2","prop_xxl_chaoji_card_2","prop_xxl_sanguo_card_2"</t>
+    <t>"prop_xxl_shuiguo_card_2","prop_xxl_shuihu_card_2","prop_xxl_caishen_card_2","prop_xxl_xiyou_card_2"</t>
   </si>
   <si>
     <t>高级</t>
@@ -79,7 +79,10 @@
     <t>yxk_btn_gjyxk</t>
   </si>
   <si>
-    <t>"prop_xxl_shuiguo_card_3","prop_xxl_shuihu_card_3","prop_xxl_caishen_card_3","prop_xxl_xiyou_card_3","prop_xxl_chaoji_card_3","prop_xxl_sanguo_card_3"</t>
+    <t>"prop_xxl_shuiguo_card_3","prop_xxl_shuihu_card_3","prop_xxl_caishen_card_3","prop_xxl_xiyou_card_3"</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -87,12 +90,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,36 +111,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -145,21 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,15 +150,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,33 +164,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,6 +201,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -236,37 +209,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,13 +270,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,169 +426,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,67 +467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,151 +499,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -724,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1051,8 +1034,8 @@
   <sheetPr/>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1252,7 +1235,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1261,6 +1244,9 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4"/>
